--- a/tutorial resources/Como construir um repositório para a genie-search-api.xlsx
+++ b/tutorial resources/Como construir um repositório para a genie-search-api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\genie-search-resources\tutorial resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\genie-search-resources\tutorial resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2044C238-F94B-4809-A712-A79937C87225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369847F-E689-4889-A15F-1334FA34BC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="229">
   <si>
     <t>Baixar os códigos-fonte dos projetos</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Sourcerer-master.zip</t>
   </si>
   <si>
-    <t>Descompactar os Projetos do Sourcerer</t>
-  </si>
-  <si>
     <t>Importar os Projetos do Sourcerer no Eclipse</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>No [eclipse-path]</t>
   </si>
   <si>
-    <t>No [sourcerer-path]</t>
-  </si>
-  <si>
     <t>Alterar o formato de Data/hora do Sistem Operacional para o Inglês</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>St</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Instalar o Eclipse</t>
   </si>
   <si>
@@ -263,15 +254,9 @@
     <t>[eclipse-mars-path]</t>
   </si>
   <si>
-    <t>C:\Dev\eclipse\eclipse-java-mars-2-win32-x86_64</t>
-  </si>
-  <si>
     <t>[sourcerer-path]</t>
   </si>
   <si>
-    <t>C:\Dev\workspaces\eclipse-java-mars-2-win32-x86_64\Sourcerer-master</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -296,12 +281,6 @@
     <t>[novo_repo_notes]</t>
   </si>
   <si>
-    <t>F:\sourcerer_portable</t>
-  </si>
-  <si>
-    <t>Adicionar tools.jar no Runtime do Ant</t>
-  </si>
-  <si>
     <t>No Eclipse: Window -&gt; Preferences -&gt; Ant -&gt; Runtime -&gt; Add External JARs...</t>
   </si>
   <si>
@@ -314,9 +293,6 @@
     <t>Iniciar o Tomcat</t>
   </si>
   <si>
-    <t>C:\Dev\eclipse\sts-4.6.0.RELEASE</t>
-  </si>
-  <si>
     <t>tomcat_startup.bat</t>
   </si>
   <si>
@@ -326,18 +302,9 @@
     <t>apache-tomcat-7.0.16\conf\Catalina\localhost</t>
   </si>
   <si>
-    <t>Para apontar para a indexação do repositório corrente: solr.xml</t>
-  </si>
-  <si>
     <t>solr-repo</t>
   </si>
   <si>
-    <t>Copiar pasta config de:</t>
-  </si>
-  <si>
-    <t>Copiar pasta config para:</t>
-  </si>
-  <si>
     <t>Configuração e schema do Solr</t>
   </si>
   <si>
@@ -416,9 +383,6 @@
     <t>[github-projects]</t>
   </si>
   <si>
-    <t>C:\GitHub</t>
-  </si>
-  <si>
     <t>genie-search-resources\solr-repo</t>
   </si>
   <si>
@@ -458,9 +422,6 @@
     <t>build.xml</t>
   </si>
   <si>
-    <t>No Eclipse: build.xml -&gt; linha 10</t>
-  </si>
-  <si>
     <t>Executar o build.xml</t>
   </si>
   <si>
@@ -524,9 +485,6 @@
     <t>É melhor que a separação de nomes seja feita com _</t>
   </si>
   <si>
-    <t>genie_search_api_test</t>
-  </si>
-  <si>
     <t>Criar pasta no [repo-path]</t>
   </si>
   <si>
@@ -711,6 +669,57 @@
   </si>
   <si>
     <t>Se o for "genie_search_api_test":  Fazer busca e testar funcionalidades</t>
+  </si>
+  <si>
+    <t>D:\GitHub</t>
+  </si>
+  <si>
+    <t>R:\sourcerer_portable</t>
+  </si>
+  <si>
+    <t>D:\Dev\Eclipse\sts-4.6.0.RELEASE</t>
+  </si>
+  <si>
+    <t>Configurar paths para os registro da tabela Root ao lado</t>
+  </si>
+  <si>
+    <t>D:\Dev\eclipse\eclipse-java-mars-2-win32-x86_64</t>
+  </si>
+  <si>
+    <t>D:\Dev\Eclipse - workspaces\eclipse-java-mars-2-win32-x86_64\Sourcerer-master</t>
+  </si>
+  <si>
+    <t>Descompactar os Projetos do Sourcerer no [sourcerer-path]</t>
+  </si>
+  <si>
+    <t>Adicionar tools.jar (JDK 1.8) no Runtime do Ant</t>
+  </si>
+  <si>
+    <t>interface-metrics</t>
+  </si>
+  <si>
+    <t>Checkout do Projeto interface-metrics</t>
+  </si>
+  <si>
+    <t>https://github.com/unifesp-seg/interface-metrics</t>
+  </si>
+  <si>
+    <t>Copiar pasta conf de:</t>
+  </si>
+  <si>
+    <t>Copiar pasta conf para:</t>
+  </si>
+  <si>
+    <t>No Eclipse: build.xml -&gt; linha 11</t>
+  </si>
+  <si>
+    <t>Fechar o Projeto genie-search-api</t>
+  </si>
+  <si>
+    <t>solr.xml</t>
+  </si>
+  <si>
+    <t>Para apontar para a indexação do repositório corrente</t>
   </si>
 </sst>
 </file>
@@ -912,13 +921,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,541 +935,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <b val="0"/>
@@ -1587,6 +1062,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1599,6 +1090,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1606,6 +1109,22 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1654,6 +1173,58 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1748,6 +1319,484 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1762,25 +1811,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0F094-9EC4-4D9A-ADE8-C9FACA7F8C79}" name="Atividades" displayName="Atividades" ref="B2:L128" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="B2:L128" xr:uid="{0F785D68-BC43-40B4-B7B2-C9ED4DD23256}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L125">
-    <sortCondition ref="D2:D125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0F094-9EC4-4D9A-ADE8-C9FACA7F8C79}" name="Atividades" displayName="Atividades" ref="B2:L138" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B2:L138" xr:uid="{0F785D68-BC43-40B4-B7B2-C9ED4DD23256}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L138">
+    <sortCondition ref="D2:D138"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EE3B0279-79FA-4F14-BE52-C2A075355689}" name="Etapa" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{2C41BA25-1AB2-4504-BB10-63BD6EC49610}" name="St" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{D86A4013-2747-47D1-8111-7D6905558CC1}" name="Nr" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{FC804BBD-7208-4928-A61B-18C9A30A44A0}" name="Atividade" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{1F844946-5C34-4481-8A1D-52378EE3AF89}" name="Descrição" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{6B22BEDC-E2CF-44C0-85F6-04A14CA03A98}" name="Print" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{C153ED0B-F358-453D-A4D0-4CC1D55803BB}" name="Link" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{EE3B0279-79FA-4F14-BE52-C2A075355689}" name="Etapa" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{2C41BA25-1AB2-4504-BB10-63BD6EC49610}" name="St" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D86A4013-2747-47D1-8111-7D6905558CC1}" name="Nr" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FC804BBD-7208-4928-A61B-18C9A30A44A0}" name="Atividade" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1F844946-5C34-4481-8A1D-52378EE3AF89}" name="Descrição" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6B22BEDC-E2CF-44C0-85F6-04A14CA03A98}" name="Print" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{C153ED0B-F358-453D-A4D0-4CC1D55803BB}" name="Link" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B6DA9F8F-4317-4E54-A1B6-E64E891B2151}" name="Root" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{F2BB27A5-32B0-4453-86CF-2CA8D2087C98}" name="Path" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{3093DDD6-59C5-4123-901F-B0FD928BC201}" name="Arquivo" dataDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{53C2210A-CB38-41C5-BF2F-81FB905E1037}" name="Etapa2" dataDxfId="63">
+    <tableColumn id="10" xr3:uid="{B6DA9F8F-4317-4E54-A1B6-E64E891B2151}" name="Root" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F2BB27A5-32B0-4453-86CF-2CA8D2087C98}" name="Path" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3093DDD6-59C5-4123-901F-B0FD928BC201}" name="Arquivo" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{53C2210A-CB38-41C5-BF2F-81FB905E1037}" name="Etapa2" dataDxfId="10">
       <calculatedColumnFormula>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1789,28 +1838,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{718782BA-4D9D-4262-AF8F-6B1ECEEF5757}" name="Etapas" displayName="Etapas" ref="N3:P11" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{718782BA-4D9D-4262-AF8F-6B1ECEEF5757}" name="Etapas" displayName="Etapas" ref="N3:P11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="N3:P11" xr:uid="{39F564CB-E68E-4A1E-BF25-D7EB36FBB3BF}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{A23CCE12-7161-41C0-98C3-31EF28C5956D}" name="Etapa" dataDxfId="62"/>
-    <tableColumn id="1" xr3:uid="{4DC39B4C-8818-4FD7-9DAF-592572E00436}" name="Ativ." dataDxfId="64">
+    <tableColumn id="2" xr3:uid="{A23CCE12-7161-41C0-98C3-31EF28C5956D}" name="Etapa" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4DC39B4C-8818-4FD7-9DAF-592572E00436}" name="Ativ." dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8A36D5F4-3E99-4CDC-B523-B68DB72280EF}" name="Descrição" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{8A36D5F4-3E99-4CDC-B523-B68DB72280EF}" name="Descrição" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE6A6EE0-B6C7-4786-8935-B279A85CF0C1}" name="Root" displayName="Root" ref="N13:P21" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE6A6EE0-B6C7-4786-8935-B279A85CF0C1}" name="Root" displayName="Root" ref="N13:P21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="N13:P21" xr:uid="{2950BCD1-8C29-4E88-A13B-3A2AF8470DB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC448D7B-2B4D-441C-B133-8C3F67B63162}" name="Root" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9631FB86-3F4F-445E-B872-DC3E8D07C7E9}" name="Link" dataDxfId="66" dataCellStyle="Hiperlink">
+    <tableColumn id="1" xr3:uid="{AC448D7B-2B4D-441C-B133-8C3F67B63162}" name="Root" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9631FB86-3F4F-445E-B872-DC3E8D07C7E9}" name="Link" dataDxfId="1" dataCellStyle="Hiperlink">
       <calculatedColumnFormula>HYPERLINK(Root[[#This Row],[Path]],"abrir")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1944283A-D36F-4432-903B-BAD47201DD5F}" name="Path" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{1944283A-D36F-4432-903B-BAD47201DD5F}" name="Path" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2079,14 +2128,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P128"/>
+  <dimension ref="B1:P138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -2108,35 +2157,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="25" t="str">
+      <c r="E1" s="24" t="str">
         <f>IF(P16&lt;&gt;"",P16,"")</f>
-        <v>genie_search_api_test</v>
+        <v/>
       </c>
     </row>
     <row r="2" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>6</v>
@@ -2145,41 +2194,33 @@
         <v>7</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="H3" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v/>
       </c>
       <c r="L3" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>9</v>
@@ -2187,74 +2228,73 @@
     </row>
     <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H4" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>41</v>
+      <c r="N4" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="O4" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H5" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>abrir</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="L5" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>42</v>
+      <c r="N5" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="O5" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
@@ -2266,33 +2306,28 @@
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H6" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>74</v>
+        <v/>
       </c>
       <c r="L6" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N6" s="24" t="s">
-        <v>43</v>
+      <c r="N6" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="O6" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
@@ -2304,36 +2339,31 @@
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N7" s="24" t="s">
-        <v>44</v>
+      <c r="N7" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O7" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
@@ -2345,33 +2375,34 @@
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>45</v>
+      <c r="N8" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="O8" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
@@ -2383,40 +2414,35 @@
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="5">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H9" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N9" s="24" t="s">
-        <v>46</v>
+      <c r="N9" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="O9" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>4</v>
@@ -2424,81 +2450,74 @@
     </row>
     <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="5">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H10" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>160</v>
+      <c r="N10" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="O10" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="5">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H11" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>170</v>
+      <c r="N11" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="O11" s="5">
         <f>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>5</v>
@@ -2506,59 +2525,61 @@
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="5">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="23" t="str">
+        <v>218</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="22" t="str">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="5">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="1" t="str">
+        <v>165</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>6</v>
@@ -2566,286 +2587,266 @@
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="5">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v/>
       </c>
-      <c r="I14" s="13"/>
       <c r="L14" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O14" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="5">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v/>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="13"/>
       <c r="L15" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="5">
         <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H16" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I16" s="15"/>
       <c r="L16" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O16" s="17" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="5">
         <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>35</v>
+      </c>
       <c r="H17" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="L17" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O17" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="5">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="L18" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O18" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="5">
         <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="L19" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="5">
         <v>18</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L20" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O20" s="16" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
@@ -2853,41 +2854,39 @@
       </c>
       <c r="P20" s="6" t="str">
         <f>P15&amp;"\repositories\"&amp;P16</f>
-        <v>F:\sourcerer_portable\repositories\genie_search_api_test</v>
+        <v>R:\sourcerer_portable\repositories\</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="5">
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Instalar ferramentas...</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O21" s="19" t="str">
         <f>HYPERLINK(Root[[#This Row],[Path]],"abrir")</f>
@@ -2895,28 +2894,32 @@
       </c>
       <c r="P21" s="6" t="str">
         <f>P20&amp;"\"&amp;P16&amp;"_notes.xlsx"</f>
-        <v>F:\sourcerer_portable\repositories\genie_search_api_test\genie_search_api_test_notes.xlsx</v>
+        <v>R:\sourcerer_portable\repositories\\_notes.xlsx</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="5">
         <v>20</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>abrir</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="L22" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -2925,26 +2928,21 @@
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="5">
         <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H23" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>26</v>
+        <v/>
       </c>
       <c r="L23" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -2953,20 +2951,24 @@
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="5">
         <v>22</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="18" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>85</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L24" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -2975,53 +2977,43 @@
     </row>
     <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="5">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="H25" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
+      </c>
       <c r="L25" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Baixar os códigos-font...</v>
+        <v>Instalar ferramentas...</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="5">
         <v>24</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H26" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Baixar os códigos-font...</v>
@@ -3029,29 +3021,24 @@
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="5">
         <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L27" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3060,23 +3047,27 @@
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="5">
         <v>26</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H28" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>abrir</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="L28" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3085,19 +3076,17 @@
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="5">
         <v>27</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H29" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
@@ -3110,19 +3099,17 @@
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="5">
         <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
@@ -3135,57 +3122,47 @@
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="5">
         <v>29</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H31" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>26</v>
+        <v/>
       </c>
       <c r="L31" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o ambiente ...</v>
+        <v>Baixar os códigos-font...</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="5">
         <v>30</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="H32" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="L32" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3194,26 +3171,27 @@
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="5">
         <v>31</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="H33" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L33" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3222,26 +3200,24 @@
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="5">
         <v>32</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="H34" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L34" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3250,26 +3226,24 @@
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="5">
         <v>33</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H35" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L35" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3278,26 +3252,24 @@
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="5">
         <v>34</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="H36" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L36" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3306,26 +3278,24 @@
     </row>
     <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="5">
         <v>35</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H37" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L37" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3334,26 +3304,24 @@
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="5">
         <v>36</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="H38" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="L38" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3362,26 +3330,24 @@
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="5">
         <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H39" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="L39" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3390,20 +3356,24 @@
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="5">
         <v>38</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H40" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>abrir</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="L40" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3412,29 +3382,18 @@
     </row>
     <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="5">
         <v>39</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="H41" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>175</v>
+        <v/>
       </c>
       <c r="L41" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3443,26 +3402,27 @@
     </row>
     <row r="42" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="5">
         <v>40</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H42" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3471,29 +3431,24 @@
     </row>
     <row r="43" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="5">
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="H43" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="L43" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3502,26 +3457,27 @@
     </row>
     <row r="44" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="5">
         <v>42</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="H44" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="L44" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3530,226 +3486,203 @@
     </row>
     <row r="45" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="5">
         <v>43</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>20</v>
+        <v>190</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="H45" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
-      </c>
-      <c r="I45" s="13"/>
+        <v>abrir</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="L45" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Construir a infraestru...</v>
+        <v>Configurar o ambiente ...</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C46" s="10"/>
       <c r="D46" s="5">
         <v>44</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="23" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L46" s="22" t="str">
+        <v>31</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="L46" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C47" s="10"/>
       <c r="D47" s="5">
         <v>45</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="11" t="str">
+        <v>165</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L47" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="L47" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C48" s="10"/>
       <c r="D48" s="5">
         <v>46</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H48" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L48" s="22" t="str">
+        <v>168</v>
+      </c>
+      <c r="L48" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="5">
         <v>47</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="11" t="str">
+        <v>19</v>
+      </c>
+      <c r="H49" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L50" s="22" t="str">
+        <v>79</v>
+      </c>
+      <c r="L50" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C51" s="10"/>
       <c r="D51" s="5">
         <v>49</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H51" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L51" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3758,35 +3691,33 @@
     </row>
     <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C52" s="10"/>
       <c r="D52" s="5">
         <v>50</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H52" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L52" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3795,35 +3726,33 @@
     </row>
     <row r="53" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C53" s="10"/>
       <c r="D53" s="5">
         <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H53" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L53" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3832,35 +3761,33 @@
     </row>
     <row r="54" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C54" s="10"/>
       <c r="D54" s="5">
         <v>52</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H54" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L54" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3869,35 +3796,33 @@
     </row>
     <row r="55" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C55" s="10"/>
       <c r="D55" s="5">
         <v>53</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H55" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L55" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3906,35 +3831,33 @@
     </row>
     <row r="56" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="5">
         <v>54</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H56" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L56" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3943,35 +3866,33 @@
     </row>
     <row r="57" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="5">
         <v>55</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H57" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L57" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -3980,35 +3901,33 @@
     </row>
     <row r="58" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="5">
         <v>56</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H58" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L58" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4017,35 +3936,33 @@
     </row>
     <row r="59" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C59" s="10"/>
       <c r="D59" s="5">
         <v>57</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H59" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L59" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4054,35 +3971,33 @@
     </row>
     <row r="60" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C60" s="10"/>
       <c r="D60" s="5">
         <v>58</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="23" t="str">
+        <v>19</v>
+      </c>
+      <c r="H60" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L60" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4091,21 +4006,22 @@
     </row>
     <row r="61" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C61" s="10"/>
       <c r="D61" s="5">
         <v>59</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H61" s="23" t="str">
+        <v>181</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
@@ -4113,7 +4029,10 @@
         <v>73</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>168</v>
+        <v>79</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="L61" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4122,29 +4041,27 @@
     </row>
     <row r="62" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="5">
         <v>60</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H62" s="23" t="str">
+        <v>170</v>
+      </c>
+      <c r="H62" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L62" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4153,29 +4070,27 @@
     </row>
     <row r="63" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="5">
         <v>61</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H63" s="23" t="str">
+        <v>172</v>
+      </c>
+      <c r="H63" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L63" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4184,29 +4099,27 @@
     </row>
     <row r="64" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="5">
         <v>62</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" s="23" t="str">
+        <v>173</v>
+      </c>
+      <c r="H64" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L64" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4215,29 +4128,27 @@
     </row>
     <row r="65" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C65" s="10"/>
       <c r="D65" s="5">
         <v>63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="23" t="str">
+        <v>174</v>
+      </c>
+      <c r="H65" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L65" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4246,29 +4157,27 @@
     </row>
     <row r="66" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C66" s="10"/>
       <c r="D66" s="5">
         <v>64</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="23" t="str">
+        <v>175</v>
+      </c>
+      <c r="H66" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L66" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4277,29 +4186,27 @@
     </row>
     <row r="67" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C67" s="10"/>
       <c r="D67" s="5">
         <v>65</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H67" s="23" t="str">
+        <v>176</v>
+      </c>
+      <c r="H67" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L67" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4308,26 +4215,27 @@
     </row>
     <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C68" s="10"/>
       <c r="D68" s="5">
         <v>66</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="11" t="str">
+        <v>177</v>
+      </c>
+      <c r="H68" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="L68" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4336,29 +4244,24 @@
     </row>
     <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="5">
         <v>67</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="23" t="str">
+        <v>23</v>
+      </c>
+      <c r="H69" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="L69" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4367,29 +4270,27 @@
     </row>
     <row r="70" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C70" s="10"/>
       <c r="D70" s="5">
         <v>68</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="23" t="str">
+        <v>178</v>
+      </c>
+      <c r="H70" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L70" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4398,29 +4299,27 @@
     </row>
     <row r="71" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C71" s="10"/>
       <c r="D71" s="5">
         <v>69</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H71" s="23" t="str">
+        <v>179</v>
+      </c>
+      <c r="H71" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L71" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4429,29 +4328,27 @@
     </row>
     <row r="72" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C72" s="10"/>
       <c r="D72" s="5">
         <v>70</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H72" s="23" t="str">
+        <v>180</v>
+      </c>
+      <c r="H72" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L72" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4460,79 +4357,76 @@
     </row>
     <row r="73" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C73" s="10"/>
       <c r="D73" s="5">
         <v>71</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="H73" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
-      </c>
-      <c r="L73" s="1" t="str">
+        <v>abrir</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L73" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="5">
         <v>72</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H74" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L74" s="22" t="str">
+        <v>148</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
+      </c>
+      <c r="L74" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C75" s="10"/>
       <c r="D75" s="5">
         <v>73</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="H75" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L75" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4541,29 +4435,24 @@
     </row>
     <row r="76" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="5">
         <v>74</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="H76" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L76" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4572,114 +4461,109 @@
     </row>
     <row r="77" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C77" s="10"/>
       <c r="D77" s="5">
         <v>75</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H77" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L77" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="L77" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C78" s="10"/>
       <c r="D78" s="5">
         <v>76</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="23" t="str">
+        <v>185</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L78" s="22" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Indexar os projetos no...</v>
+        <v>81</v>
+      </c>
+      <c r="L78" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Construir a infraestru...</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="5">
         <v>77</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="11" t="str">
+        <v>165</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L79" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="L79" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Indexar os projetos no...</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C80" s="10"/>
       <c r="D80" s="5">
         <v>78</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="H80" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="L80" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4688,29 +4572,27 @@
     </row>
     <row r="81" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C81" s="10"/>
       <c r="D81" s="5">
         <v>79</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="H81" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L81" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4719,29 +4601,27 @@
     </row>
     <row r="82" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C82" s="10"/>
       <c r="D82" s="5">
         <v>80</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="H82" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L82" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4750,26 +4630,27 @@
     </row>
     <row r="83" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C83" s="10"/>
       <c r="D83" s="5">
         <v>81</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H83" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="L83" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4778,24 +4659,24 @@
     </row>
     <row r="84" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C84" s="10"/>
       <c r="D84" s="5">
         <v>82</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>201</v>
+        <v>85</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="H84" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>209</v>
+      <c r="I84" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L84" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4804,35 +4685,22 @@
     </row>
     <row r="85" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C85" s="10"/>
       <c r="D85" s="5">
         <v>83</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="H85" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="L85" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4841,32 +4709,33 @@
     </row>
     <row r="86" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C86" s="10"/>
       <c r="D86" s="5">
         <v>84</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H86" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L86" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4875,26 +4744,30 @@
     </row>
     <row r="87" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="5">
         <v>85</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H87" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L87" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4903,32 +4776,24 @@
     </row>
     <row r="88" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C88" s="10"/>
       <c r="D88" s="5">
         <v>86</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H88" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="L88" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4937,16 +4802,17 @@
     </row>
     <row r="89" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="5">
         <v>87</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="H89" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
@@ -4956,7 +4822,10 @@
         <v>73</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L89" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -4965,54 +4834,50 @@
     </row>
     <row r="90" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C90" s="10"/>
       <c r="D90" s="5">
         <v>88</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="H90" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L90" s="22" t="str">
+        <v>70</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L90" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Indexar os projetos no...</v>
       </c>
     </row>
     <row r="91" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C91" s="10"/>
       <c r="D91" s="5">
         <v>89</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H91" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L91" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -5021,150 +4886,126 @@
     </row>
     <row r="92" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C92" s="10"/>
       <c r="D92" s="5">
         <v>90</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H92" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="L92" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Indexar os projetos no...</v>
       </c>
     </row>
     <row r="93" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C93" s="10"/>
       <c r="D93" s="5">
         <v>91</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="H93" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Extender o BD dos proj...</v>
+        <v>Indexar os projetos no...</v>
       </c>
     </row>
     <row r="94" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="5">
         <v>92</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="H94" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="J94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L94" s="1" t="str">
+        <v>222</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C95" s="10"/>
       <c r="D95" s="5">
         <v>93</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="J95" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L95" s="1" t="str">
+        <v>123</v>
+      </c>
+      <c r="L95" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="96" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C96" s="10"/>
       <c r="D96" s="5">
         <v>94</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H96" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K96" s="2"/>
       <c r="L96" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
@@ -5172,153 +5013,137 @@
     </row>
     <row r="97" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C97" s="10"/>
       <c r="D97" s="5">
         <v>95</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="H97" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L97" s="1" t="str">
+        <v>125</v>
+      </c>
+      <c r="L97" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="98" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C98" s="10"/>
       <c r="D98" s="5">
         <v>96</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="H98" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L98" s="1" t="str">
+        <v>127</v>
+      </c>
+      <c r="L98" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="99" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C99" s="10"/>
       <c r="D99" s="5">
         <v>97</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H99" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L99" s="1" t="str">
+        <v>127</v>
+      </c>
+      <c r="L99" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="100" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C100" s="10"/>
       <c r="D100" s="5">
         <v>98</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H100" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L100" s="1" t="str">
+        <v>30</v>
+      </c>
+      <c r="H100" s="25" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
+      </c>
+      <c r="L100" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="101" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C101" s="10"/>
       <c r="D101" s="5">
         <v>99</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H101" s="18" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>26</v>
+      </c>
+      <c r="H101" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="L101" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -5327,23 +5152,30 @@
     </row>
     <row r="102" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C102" s="10"/>
       <c r="D102" s="5">
         <v>100</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H102" s="18" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>26</v>
+      </c>
+      <c r="H102" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L102" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -5352,26 +5184,30 @@
     </row>
     <row r="103" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C103" s="10"/>
       <c r="D103" s="5">
         <v>101</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="H103" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="L103" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -5380,32 +5216,24 @@
     </row>
     <row r="104" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C104" s="10"/>
       <c r="D104" s="5">
         <v>102</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="H104" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="L104" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
@@ -5414,330 +5242,304 @@
     </row>
     <row r="105" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C105" s="10"/>
       <c r="D105" s="5">
         <v>103</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="H105" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L105" s="22" t="str">
+        <v>115</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L105" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C106" s="10"/>
       <c r="D106" s="5">
         <v>104</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="H106" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L106" s="22" t="str">
+        <v>115</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L106" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C107" s="10"/>
       <c r="D107" s="5">
         <v>105</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>134</v>
+        <v>196</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="H107" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
+      <c r="I107" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="J107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K107" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="L107" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C108" s="10"/>
       <c r="D108" s="5">
         <v>106</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H108" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K108" s="2"/>
+        <v>25</v>
+      </c>
       <c r="L108" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="109" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C109" s="10"/>
       <c r="D109" s="5">
         <v>107</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
+      </c>
+      <c r="H109" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
       </c>
       <c r="L109" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="110" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C110" s="10"/>
       <c r="D110" s="5">
         <v>108</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H110" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="H110" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
       </c>
       <c r="L110" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="111" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C111" s="10"/>
       <c r="D111" s="5">
         <v>109</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="H111" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L111" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>81</v>
+      </c>
+      <c r="L111" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="112" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C112" s="10"/>
       <c r="D112" s="5">
         <v>110</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="H112" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L112" s="22" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>199</v>
+      </c>
+      <c r="L112" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="113" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C113" s="10"/>
       <c r="D113" s="5">
         <v>111</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="H113" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L113" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>81</v>
+      </c>
+      <c r="L113" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="114" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C114" s="10"/>
       <c r="D114" s="5">
         <v>112</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>94</v>
+        <v>192</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H114" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L114" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Configurar o genie-sea...</v>
+        <v>81</v>
+      </c>
+      <c r="L114" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Extender o BD dos proj...</v>
       </c>
     </row>
     <row r="115" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C115" s="10"/>
       <c r="D115" s="5">
         <v>113</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H115" s="23" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="H115" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K115" s="2"/>
       <c r="L115" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Configurar o genie-sea...</v>
@@ -5745,697 +5547,991 @@
     </row>
     <row r="116" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C116" s="10"/>
       <c r="D116" s="5">
         <v>114</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H116" s="18" t="str">
+        <v>30</v>
+      </c>
+      <c r="H116" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L116" s="22" t="str">
+        <v>71</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="117" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C117" s="10"/>
       <c r="D117" s="5">
         <v>115</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H117" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L117" s="22" t="str">
+        <v>115</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L117" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C118" s="10"/>
       <c r="D118" s="5">
         <v>116</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="H118" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
+      <c r="I118" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="J118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K118" s="2"/>
+        <v>127</v>
+      </c>
       <c r="L118" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="119" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C119" s="10"/>
       <c r="D119" s="5">
         <v>117</v>
       </c>
       <c r="E119" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H119" s="18" t="str">
+      <c r="H119" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>74</v>
+        <v>115</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="L119" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="120" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C120" s="10"/>
       <c r="D120" s="5">
         <v>118</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="H120" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L120" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>88</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L120" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C121" s="10"/>
       <c r="D121" s="5">
         <v>119</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H121" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L121" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>120</v>
+      </c>
+      <c r="L121" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C122" s="10"/>
       <c r="D122" s="5">
         <v>120</v>
       </c>
       <c r="E122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H122" s="21" t="str">
+      <c r="H122" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L122" s="22" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>25</v>
+      </c>
+      <c r="L122" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="123" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C123" s="10"/>
       <c r="D123" s="5">
         <v>121</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H123" s="21" t="str">
+        <v>86</v>
+      </c>
+      <c r="H123" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L123" s="22" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>25</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="124" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C124" s="10"/>
       <c r="D124" s="5">
         <v>122</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H124" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v/>
+        <v>208</v>
+      </c>
+      <c r="H124" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="L124" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="125" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C125" s="10"/>
       <c r="D125" s="5">
         <v>123</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H125" s="11" t="str">
-        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
-        <v>abrir</v>
+        <v>26</v>
+      </c>
+      <c r="H125" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L125" s="1" t="str">
-        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>125</v>
+      </c>
+      <c r="L125" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="126" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C126" s="10"/>
       <c r="D126" s="5">
         <v>124</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H126" s="21" t="str">
+        <v>207</v>
+      </c>
+      <c r="H126" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L126" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
-        <v>Executar o i-code-geni...</v>
+        <v>Configurar o genie-sea...</v>
       </c>
     </row>
     <row r="127" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C127" s="10"/>
       <c r="D127" s="5">
         <v>125</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H127" s="23" t="str">
+        <v>131</v>
+      </c>
+      <c r="H127" s="11" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L127" s="22" t="str">
+        <v>112</v>
+      </c>
+      <c r="K127" s="2"/>
+      <c r="L127" s="1" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Executar o i-code-geni...</v>
       </c>
     </row>
     <row r="128" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C128" s="10"/>
       <c r="D128" s="5">
         <v>126</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H128" s="21" t="str">
+        <v>30</v>
+      </c>
+      <c r="H128" s="18" t="str">
         <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
         <v>abrir</v>
       </c>
       <c r="I128" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="5">
+        <v>127</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="5">
+        <v>128</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L130" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="5">
+        <v>129</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H131" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L131" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="5">
+        <v>130</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="21" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L132" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="5">
+        <v>131</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L128" s="22" t="str">
+      <c r="H133" s="21" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="22" t="str">
         <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
         <v>Executar o i-code-geni...</v>
       </c>
     </row>
+    <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="5">
+        <v>132</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H134" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v/>
+      </c>
+      <c r="L134" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="5">
+        <v>133</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H135" s="11" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L135" s="1" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="5">
+        <v>134</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H136" s="21" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L136" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="5">
+        <v>135</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H137" s="18" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L137" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="5">
+        <v>136</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" s="21" t="str">
+        <f>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</f>
+        <v>abrir</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L138" s="22" t="str">
+        <f>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</f>
+        <v>Executar o i-code-geni...</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C46:C73 C3:C44 C77:C128">
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+  <conditionalFormatting sqref="C4:C45 C78:C138">
+    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:H41 J41:K42 I85:K85 J99:K100 K76 D1:K4 H3:H17 E5:K40 E42:G44 F45:G45 I43:K46 H40:H46 E46:G46 E47:K47 J48:K48 E50:J59 E48:H49 G49:G59 E73:H73 F60:K66 E49:E66 E68:K71 J67:K67 J72:K75 E77:K77 I79:K82 K78 E79:G85 I83:I84 K83:K84 E86:K89 H79:H89 E93:K98 J90:K92 F91:F92 E101:K103 J104:K106 F104:F106 J117:K117 E118:K123 E107:K116 J126:K126 D129:K1048576 G127:I127 K127 E127 J128:K128 D5:D128">
-    <cfRule type="expression" dxfId="57" priority="79">
+  <conditionalFormatting sqref="J42:K43 I86:K86 K77 H4:H18 E43:G45 F46:G46 I44:K47 H41:H47 E47:G47 J49:K49 E51:J60 E49:H50 G50:G60 F61:K67 E50:E67 E69:K72 J68:K68 J73:K76 I80:K83 K79 E80:G86 I84:I85 K84:K85 E87:K90 H80:H90 J91:K93 F92:F93 J112:K114 F112:F114 J126:K126 J136:K136 G137:I137 K137 J138:K138 D1:K2 D4:K4 E105:K111 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42:H42 D44 D46 D48:K48 D50 D52 D54 D56 D58 D60 D62 D64 D66 D68 D70 D72 D74:H74 D76 D78:K78 D80 D82 D84 D86 D88 D90 D92 D94 D96 D98 E94:K101 D100 E137 E127:K130 E132:K133 K131 E115:K119 E121:K125 K120 J102:K102 J104:K104 D139:K1048576 D102 K103 D104 D106 D108 D110 D112 D114 D116 D118 D120 D122 D124 D126 D128 D130 D132 D134 D136 D138 E5:K41">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>$C1="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="56" priority="77">
-      <formula>$C41="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="55" priority="76">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$C42="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="54" priority="75">
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="83" priority="83">
+      <formula>$C43="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="82" priority="82">
+      <formula>$C74="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="expression" dxfId="81" priority="81">
+      <formula>$C84="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="80" priority="80">
+      <formula>$C49="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102:I102">
+    <cfRule type="expression" dxfId="79" priority="72">
+      <formula>$C102="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104:I104">
+    <cfRule type="expression" dxfId="78" priority="71">
+      <formula>$C104="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" dxfId="77" priority="70">
+      <formula>$C104="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="expression" dxfId="75" priority="66">
+      <formula>$C77="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="74" priority="64">
+      <formula>$C46="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:J60">
+    <cfRule type="expression" dxfId="73" priority="63">
+      <formula>$C50="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:I60">
+    <cfRule type="expression" dxfId="72" priority="62">
+      <formula>$C50="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:K60">
+    <cfRule type="expression" dxfId="71" priority="61">
+      <formula>$C50="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:H73">
+    <cfRule type="expression" dxfId="70" priority="57">
       <formula>$C73="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="expression" dxfId="53" priority="74">
-      <formula>$C83="ok"</formula>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="69" priority="56">
+      <formula>$C73="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="52" priority="73">
-      <formula>$C48="ok"</formula>
+  <conditionalFormatting sqref="E77:F77 H77">
+    <cfRule type="expression" dxfId="68" priority="53">
+      <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:I99">
-    <cfRule type="expression" dxfId="51" priority="65">
-      <formula>$C99="ok"</formula>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="67" priority="52">
+      <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100:I100">
-    <cfRule type="expression" dxfId="50" priority="64">
-      <formula>$C100="ok"</formula>
+  <conditionalFormatting sqref="E68:I68">
+    <cfRule type="expression" dxfId="66" priority="51">
+      <formula>$C68="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="expression" dxfId="49" priority="63">
-      <formula>$C100="ok"</formula>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:H75 F75:F78">
+    <cfRule type="expression" dxfId="64" priority="49">
+      <formula>$C75="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="63" priority="48">
+      <formula>$C75="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="expression" dxfId="47" priority="59">
-      <formula>$C76="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="45" priority="57">
-      <formula>$C45="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J59">
-    <cfRule type="expression" dxfId="44" priority="56">
-      <formula>$C49="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I59">
-    <cfRule type="expression" dxfId="43" priority="55">
-      <formula>$C49="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K59">
-    <cfRule type="expression" dxfId="42" priority="54">
-      <formula>$C49="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:H72">
-    <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$C72="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>$C72="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:F76 H76">
-    <cfRule type="expression" dxfId="39" priority="46">
+  <conditionalFormatting sqref="E76:H76">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>$C76="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="38" priority="45">
+    <cfRule type="expression" dxfId="60" priority="44">
       <formula>$C76="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67:I67">
-    <cfRule type="expression" dxfId="37" priority="44">
-      <formula>$C67="ok"</formula>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" dxfId="59" priority="43">
+      <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
-      <formula>"ok"</formula>
+  <conditionalFormatting sqref="E79:J79">
+    <cfRule type="expression" dxfId="58" priority="42">
+      <formula>$C79="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:H74 F74:F77">
-    <cfRule type="expression" dxfId="35" priority="42">
-      <formula>$C74="ok"</formula>
+  <conditionalFormatting sqref="E93:I93">
+    <cfRule type="expression" dxfId="57" priority="40">
+      <formula>$C93="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>$C74="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:H75">
-    <cfRule type="expression" dxfId="32" priority="38">
-      <formula>$C75="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>$C75="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>$C76="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:J78">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>$C78="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:I92">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>$C92="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:H90 F90:F92">
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>$C90="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="expression" dxfId="26" priority="29">
-      <formula>$C90="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91:H91">
-    <cfRule type="expression" dxfId="25" priority="28">
+  <conditionalFormatting sqref="E91:H91 F91:F93">
+    <cfRule type="expression" dxfId="56" priority="37">
       <formula>$C91="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="55" priority="36">
       <formula>$C91="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106:F106 H106">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$C106="ok"</formula>
+  <conditionalFormatting sqref="E92:H92">
+    <cfRule type="expression" dxfId="54" priority="35">
+      <formula>$C92="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I106">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$C106="ok"</formula>
+  <conditionalFormatting sqref="I92">
+    <cfRule type="expression" dxfId="53" priority="34">
+      <formula>$C92="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:H104">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$C104="ok"</formula>
+  <conditionalFormatting sqref="E114:F114 H114">
+    <cfRule type="expression" dxfId="52" priority="31">
+      <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$C104="ok"</formula>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="expression" dxfId="51" priority="30">
+      <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:H105">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$C105="ok"</formula>
+  <conditionalFormatting sqref="E112:H112">
+    <cfRule type="expression" dxfId="50" priority="29">
+      <formula>$C112="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$C105="ok"</formula>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="expression" dxfId="49" priority="28">
+      <formula>$C112="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$C106="ok"</formula>
+  <conditionalFormatting sqref="E113:H113">
+    <cfRule type="expression" dxfId="48" priority="27">
+      <formula>$C113="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$C84="ok"</formula>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="expression" dxfId="47" priority="26">
+      <formula>$C113="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125:K125 E124:K124">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$C124="ok"</formula>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="expression" dxfId="46" priority="25">
+      <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125:I125">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$C125="ok"</formula>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="expression" dxfId="45" priority="24">
+      <formula>$C85="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$C125="ok"</formula>
+  <conditionalFormatting sqref="J135:K135 E134:K134">
+    <cfRule type="expression" dxfId="44" priority="23">
+      <formula>$C134="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$C117="ok"</formula>
+  <conditionalFormatting sqref="E135:I135">
+    <cfRule type="expression" dxfId="43" priority="22">
+      <formula>$C135="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117:I117">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$C117="ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$C117="ok"</formula>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="expression" dxfId="42" priority="21">
+      <formula>$C135="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="41" priority="20">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126:I126">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$C127="ok"</formula>
+  <conditionalFormatting sqref="F136">
+    <cfRule type="expression" dxfId="38" priority="17">
+      <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$C127="ok"</formula>
+  <conditionalFormatting sqref="E136:I136">
+    <cfRule type="expression" dxfId="37" priority="16">
+      <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$C127="ok"</formula>
+  <conditionalFormatting sqref="F136">
+    <cfRule type="expression" dxfId="36" priority="15">
+      <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J127">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C127="ok"</formula>
+  <conditionalFormatting sqref="F137">
+    <cfRule type="expression" dxfId="35" priority="14">
+      <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C128="ok"</formula>
+  <conditionalFormatting sqref="F137">
+    <cfRule type="expression" dxfId="34" priority="13">
+      <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128:I128">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C128="ok"</formula>
+  <conditionalFormatting sqref="F137">
+    <cfRule type="expression" dxfId="33" priority="12">
+      <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C128="ok"</formula>
+  <conditionalFormatting sqref="J137">
+    <cfRule type="expression" dxfId="32" priority="11">
+      <formula>$C137="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F138">
+    <cfRule type="expression" dxfId="31" priority="10">
+      <formula>$C138="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138:I138">
+    <cfRule type="expression" dxfId="30" priority="9">
+      <formula>$C138="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F138">
+    <cfRule type="expression" dxfId="29" priority="8">
+      <formula>$C138="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:K3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59 D61 D63 D65 D67 D69 D71 D73 D75 D77 D79 D81 D83 D85 D87 D89 D91 D93 D95 D97 D99 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D123 D125 D127 D129 D131 D133 D135 D137">
+    <cfRule type="expression" dxfId="27" priority="6">
+      <formula>$C3="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C74">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131:J131">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$C131="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120:J120">
+    <cfRule type="expression" dxfId="24" priority="2">
+      <formula>$C120="ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:J103">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$C103="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{356F8136-2474-4A38-BFFE-9E9C33BAF69D}"/>
-    <hyperlink ref="G47" r:id="rId2" xr:uid="{A9D491A2-0ED3-4C98-9F96-2EBD6361A472}"/>
-    <hyperlink ref="G45" r:id="rId3" xr:uid="{AD622A18-1AB9-421F-B88C-62A4921EC30C}"/>
-    <hyperlink ref="G18" r:id="rId4" xr:uid="{3AB6CBD7-D5B9-475B-B01B-BC0336C46B9A}"/>
-    <hyperlink ref="G15" r:id="rId5" xr:uid="{27AB5F87-E05E-45F5-8D4A-B9F605FC8E4D}"/>
-    <hyperlink ref="G85" r:id="rId6" xr:uid="{1F5EC751-EE9F-4839-A9B9-D1EC80893A86}"/>
-    <hyperlink ref="J107" r:id="rId7" xr:uid="{CE3B1D40-9335-48E5-B54B-9E9D42A674A4}"/>
-    <hyperlink ref="J118" r:id="rId8" xr:uid="{21877A52-F9C2-4066-9F4E-8A748DD6B1E7}"/>
-    <hyperlink ref="J125" r:id="rId9" xr:uid="{F7BFE18B-FD76-448D-A78F-BCE1C4BD35CA}"/>
-    <hyperlink ref="G73" r:id="rId10" xr:uid="{F9A2DAA1-961E-458C-9AF4-249133867DF7}"/>
-    <hyperlink ref="G48" r:id="rId11" xr:uid="{CE3EB9D2-3E22-466F-9F20-9F22DD25EB14}"/>
-    <hyperlink ref="G49" r:id="rId12" display="4.png" xr:uid="{8110E144-0DCC-441F-BC19-F52F863D40A1}"/>
-    <hyperlink ref="G50" r:id="rId13" xr:uid="{0B5FAD63-F052-4826-AFAE-EAFFDB9C7DD9}"/>
-    <hyperlink ref="G50:G59" r:id="rId14" display="Detalhe" xr:uid="{D695D480-8972-4BF7-A146-A836FECD005E}"/>
-    <hyperlink ref="G76" r:id="rId15" xr:uid="{5B539556-A69A-4062-9130-220DFB7E2ADC}"/>
-    <hyperlink ref="G106" r:id="rId16" xr:uid="{2ED1F00D-8658-494A-9FDC-E4D30BEFF421}"/>
-    <hyperlink ref="J84" r:id="rId17" xr:uid="{39A1FB4E-5CB1-4E8B-A234-D4F985010E92}"/>
-    <hyperlink ref="J127" r:id="rId18" xr:uid="{60F4A2B4-3447-4C9E-BDA1-2004A06F50D4}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{356F8136-2474-4A38-BFFE-9E9C33BAF69D}"/>
+    <hyperlink ref="G48" r:id="rId2" xr:uid="{A9D491A2-0ED3-4C98-9F96-2EBD6361A472}"/>
+    <hyperlink ref="G46" r:id="rId3" xr:uid="{AD622A18-1AB9-421F-B88C-62A4921EC30C}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{3AB6CBD7-D5B9-475B-B01B-BC0336C46B9A}"/>
+    <hyperlink ref="G16" r:id="rId5" xr:uid="{27AB5F87-E05E-45F5-8D4A-B9F605FC8E4D}"/>
+    <hyperlink ref="G86" r:id="rId6" xr:uid="{1F5EC751-EE9F-4839-A9B9-D1EC80893A86}"/>
+    <hyperlink ref="J115" r:id="rId7" xr:uid="{CE3B1D40-9335-48E5-B54B-9E9D42A674A4}"/>
+    <hyperlink ref="J127" r:id="rId8" xr:uid="{21877A52-F9C2-4066-9F4E-8A748DD6B1E7}"/>
+    <hyperlink ref="J135" r:id="rId9" xr:uid="{F7BFE18B-FD76-448D-A78F-BCE1C4BD35CA}"/>
+    <hyperlink ref="G74" r:id="rId10" xr:uid="{F9A2DAA1-961E-458C-9AF4-249133867DF7}"/>
+    <hyperlink ref="G49" r:id="rId11" xr:uid="{CE3EB9D2-3E22-466F-9F20-9F22DD25EB14}"/>
+    <hyperlink ref="G50" r:id="rId12" display="4.png" xr:uid="{8110E144-0DCC-441F-BC19-F52F863D40A1}"/>
+    <hyperlink ref="G51" r:id="rId13" xr:uid="{0B5FAD63-F052-4826-AFAE-EAFFDB9C7DD9}"/>
+    <hyperlink ref="G51:G60" r:id="rId14" display="Detalhe" xr:uid="{D695D480-8972-4BF7-A146-A836FECD005E}"/>
+    <hyperlink ref="G77" r:id="rId15" xr:uid="{5B539556-A69A-4062-9130-220DFB7E2ADC}"/>
+    <hyperlink ref="G114" r:id="rId16" xr:uid="{2ED1F00D-8658-494A-9FDC-E4D30BEFF421}"/>
+    <hyperlink ref="J85" r:id="rId17" xr:uid="{39A1FB4E-5CB1-4E8B-A234-D4F985010E92}"/>
+    <hyperlink ref="J137" r:id="rId18" xr:uid="{60F4A2B4-3447-4C9E-BDA1-2004A06F50D4}"/>
+    <hyperlink ref="J95" r:id="rId19" xr:uid="{60716458-E8E6-43E0-8FAF-99034B0ABEAB}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId20"/>
   <tableParts count="3">
-    <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>